--- a/Documentação/Planilhas/Layouts/Layout_BAL.xlsx
+++ b/Documentação/Planilhas/Layouts/Layout_BAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stg_bal_balancete" sheetId="88" r:id="rId1"/>
@@ -590,31 +590,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -622,22 +616,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1847850" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -650,31 +635,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -682,22 +661,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1847850" cy="885825"/>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2046754" cy="843803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -995,7 +965,9 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1306,7 +1278,9 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
